--- a/public/templates/formatoListadoRecargas.xlsx
+++ b/public/templates/formatoListadoRecargas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\soporte\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060B3C9-6042-49FD-8EC2-7D1331F13018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECD412-FF87-48C7-90AF-D5E402F5091A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" activeTab="2" xr2:uid="{7B9FB15D-A491-4335-8A37-01AB0C75BE98}"/>
   </bookViews>
@@ -802,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -882,6 +882,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,14 +905,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4031,12 +4034,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="3" t="s">
@@ -4152,7 +4155,7 @@
   <dimension ref="A4:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
@@ -4163,38 +4166,39 @@
     <col min="5" max="5" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.21875" style="27" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="27"/>
+    <col min="8" max="8" width="21.21875" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="27"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" customHeight="1">
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="28" t="s">
@@ -4220,9 +4224,9 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="52"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="25"/>
@@ -4262,7 +4266,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="44"/>
       <c r="H14" s="33"/>
     </row>
@@ -4270,9 +4274,9 @@
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="50"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="44"/>
-      <c r="H15" s="53"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="25"/>
@@ -4295,7 +4299,7 @@
       <c r="C18" s="25"/>
       <c r="D18" s="20"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="50"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="44"/>
       <c r="H18" s="33"/>
     </row>
@@ -4303,17 +4307,17 @@
       <c r="C19" s="25"/>
       <c r="D19" s="20"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="53"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="2:8">
       <c r="C20" s="25"/>
       <c r="D20" s="20"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="50"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="53"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="2:8">
       <c r="C21" s="25"/>
@@ -4321,7 +4325,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="13"/>
       <c r="G21" s="44"/>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="48" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4331,7 +4335,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="13"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="53"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="25"/>
@@ -4339,7 +4343,7 @@
       <c r="E23" s="43"/>
       <c r="F23" s="25"/>
       <c r="G23" s="44"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="2:8">
       <c r="C24" s="25"/>
@@ -4347,7 +4351,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="13"/>
       <c r="G24" s="44"/>
-      <c r="H24" s="53"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="2:8">
       <c r="C25" s="25"/>
@@ -4355,7 +4359,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="13"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="2:8">
       <c r="C26" s="25"/>
@@ -4363,7 +4367,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="13"/>
       <c r="G26" s="44"/>
-      <c r="H26" s="53"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="25"/>
@@ -4371,7 +4375,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="13"/>
       <c r="G27" s="44"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" spans="2:8">
       <c r="C28" s="25"/>
@@ -4379,7 +4383,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="13"/>
       <c r="G28" s="44"/>
-      <c r="H28" s="53"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="2:8">
       <c r="C29" s="25"/>
@@ -4387,7 +4391,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="13"/>
       <c r="G29" s="44"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="2:8">
       <c r="C30" s="25"/>
@@ -4395,7 +4399,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="13"/>
       <c r="G30" s="44"/>
-      <c r="H30" s="53"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" s="25"/>
@@ -4403,7 +4407,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="13"/>
       <c r="G31" s="44"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="2:8">
       <c r="C32" s="25"/>
@@ -4411,31 +4415,31 @@
       <c r="E32" s="17"/>
       <c r="F32" s="13"/>
       <c r="G32" s="44"/>
-      <c r="H32" s="53"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="51"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="51"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="44"/>
-      <c r="H34" s="53"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="3:12">
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="51"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="44"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="25"/>
@@ -4443,7 +4447,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="13"/>
       <c r="G36" s="44"/>
-      <c r="H36" s="53"/>
+      <c r="H36" s="48"/>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="25"/>
@@ -4451,7 +4455,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="30"/>
       <c r="G37" s="44"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="25"/>
@@ -4459,7 +4463,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="30"/>
       <c r="G38" s="44"/>
-      <c r="H38" s="53"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="25"/>
@@ -4467,7 +4471,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="13"/>
       <c r="G39" s="44"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="3:12">
       <c r="G40" s="31">
@@ -4482,16 +4486,16 @@
       <c r="L45" s="39"/>
     </row>
     <row r="46" spans="3:12">
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="46"/>
+      <c r="F46" s="50"/>
     </row>
     <row r="47" spans="3:12">
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="47"/>
+      <c r="F47" s="51"/>
     </row>
     <row r="56" spans="10:13">
       <c r="K56" s="17" t="s">
